--- a/Electrical/Test Boards/PWM_Isolator/BOM.xlsx
+++ b/Electrical/Test Boards/PWM_Isolator/BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Designator:</t>
   </si>
@@ -95,10 +95,22 @@
     <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-3EKF2200V/?qs=iBwFsHVUAOcTUCNoJPNpnQ==</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Output Pull-down Resistor, 0603</t>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>3306F-1-103</t>
+  </si>
+  <si>
+    <t>Output Trimmer Potentiometer</t>
+  </si>
+  <si>
+    <t>http://www.bourns.com/docs/Product-Datasheets/3306.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/bourns-inc/3306F-1-103/3306F-103-ND/84666</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Bourns/3306F-1-103/?qs=lKPmECyLdCwn927ZmtxV0Q==</t>
   </si>
   <si>
     <t>P1</t>
@@ -298,7 +310,7 @@
   <dimension ref="A1:AMI65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -1457,15 +1469,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>0.43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" s="0"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1474,7 +1494,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1</v>
@@ -1483,19 +1503,19 @@
         <v>0.27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" s="0"/>
       <c r="K6" s="1"/>
@@ -1510,11 +1530,11 @@
     </row>
     <row r="8" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="n">
         <f aca="false">(C2*B2)+(C3*B3)+(C4*B4)+(C5*B5)+(C6*B6)</f>
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -1540,9 +1560,12 @@
     <hyperlink ref="F4" r:id="rId7" display="http://industrial.panasonic.com/www-cgi/jvcr13pz.cgi?E+PZ+3+AOA0002+ERJ3EKF2200V+7+WW"/>
     <hyperlink ref="G4" r:id="rId8" display="https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-3EKF2200V/P220HCT-ND/1746741"/>
     <hyperlink ref="H4" r:id="rId9" display="http://www.mouser.com/ProductDetail/Panasonic/ERJ-3EKF2200V/?qs=iBwFsHVUAOcTUCNoJPNpnQ=="/>
-    <hyperlink ref="F6" r:id="rId10" display="http://portal.fciconnect.com/Comergent//fci/drawing/68000.pdf"/>
-    <hyperlink ref="G6" r:id="rId11" display="https://www.digikey.com/product-detail/en/amphenol-fci/68000-103HLF/609-3461-ND/2023309"/>
-    <hyperlink ref="H6" r:id="rId12" display="http://www.mouser.com/ProductDetail/FCI/68000-103HLF/?qs=zh4O8xspOuyqPBhcuxtliw=="/>
+    <hyperlink ref="F5" r:id="rId10" display="http://www.bourns.com/docs/Product-Datasheets/3306.pdf"/>
+    <hyperlink ref="G5" r:id="rId11" display="https://www.digikey.com/product-detail/en/bourns-inc/3306F-1-103/3306F-103-ND/84666"/>
+    <hyperlink ref="H5" r:id="rId12" display="http://www.mouser.com/ProductDetail/Bourns/3306F-1-103/?qs=lKPmECyLdCwn927ZmtxV0Q=="/>
+    <hyperlink ref="F6" r:id="rId13" display="http://portal.fciconnect.com/Comergent//fci/drawing/68000.pdf"/>
+    <hyperlink ref="G6" r:id="rId14" display="https://www.digikey.com/product-detail/en/amphenol-fci/68000-103HLF/609-3461-ND/2023309"/>
+    <hyperlink ref="H6" r:id="rId15" display="http://www.mouser.com/ProductDetail/FCI/68000-103HLF/?qs=zh4O8xspOuyqPBhcuxtliw=="/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
